--- a/types/v.xlsx
+++ b/types/v.xlsx
@@ -470,7 +470,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>123</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -479,13 +479,13 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>123</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>123</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>123</v>
       </c>
     </row>
     <row r="3">
@@ -493,7 +493,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>100</v>
+        <v>246</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>

--- a/types/v.xlsx
+++ b/types/v.xlsx
@@ -470,7 +470,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>123</v>
+        <v>1</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -479,13 +479,13 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>123</v>
+        <v>1</v>
       </c>
       <c r="F2" t="n">
-        <v>123</v>
+        <v>1</v>
       </c>
       <c r="G2" t="n">
-        <v>123</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3">
@@ -493,7 +493,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>246</v>
+        <v>1001</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
